--- a/biology/Médecine/Jean_Lacassagne/Jean_Lacassagne.xlsx
+++ b/biology/Médecine/Jean_Lacassagne/Jean_Lacassagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Lacassagne, né le 2 janvier 1886 à Lyon et mort en janvier 1960 à Lyon, est un médecin, dermato-vénérologue et historien de la médecine français[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lacassagne, né le 2 janvier 1886 à Lyon et mort en janvier 1960 à Lyon, est un médecin, dermato-vénérologue et historien de la médecine français.
 </t>
         </is>
       </c>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille
-Jean Lacassagne est le fils d'Alexandre Lacassagne, le frère d'Antoine Lacassagne, le petit-fils de Joseph Rollet, et le beau-frère d'Albert Policard.
-Carrière
-Il devient médecin en 1911[4]. Il est médecin auxiliaire d'un régiment pendant la Première Guerre mondiale[4]. Il cofonde l'Association républicaine pour favoriser les études médicales[4].
-Il est connu pour avoir été médecin des prisons s'intéressant particulièrement aux tatouages des détenus[5]. Il s'intéresse particulièrement aux aspects psychologiques et à la mémoire du détenu[5]. Il rencontre notamment l'assassin Louis Rambert avec qui il noue une relation de confiance[5].
-En 1933, il fonde la section lyonnaise de la Société d’histoire de la médecine[4]. En 1934, il est élu président de l'Association des Amis du musée Gadagne et occupe cette fonction jusqu'à son décès en 1960[6].
-Comme son père et son grand-père Joseph Rollet, il est enterré à Beynost[3].
-Décoration
- Chevalier de la Légion d'honneur[5]</t>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Lacassagne est le fils d'Alexandre Lacassagne, le frère d'Antoine Lacassagne, le petit-fils de Joseph Rollet, et le beau-frère d'Albert Policard.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +557,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient médecin en 1911. Il est médecin auxiliaire d'un régiment pendant la Première Guerre mondiale. Il cofonde l'Association républicaine pour favoriser les études médicales.
+Il est connu pour avoir été médecin des prisons s'intéressant particulièrement aux tatouages des détenus. Il s'intéresse particulièrement aux aspects psychologiques et à la mémoire du détenu. Il rencontre notamment l'assassin Louis Rambert avec qui il noue une relation de confiance.
+En 1933, il fonde la section lyonnaise de la Société d’histoire de la médecine. En 1934, il est élu président de l'Association des Amis du musée Gadagne et occupe cette fonction jusqu'à son décès en 1960.
+Comme son père et son grand-père Joseph Rollet, il est enterré à Beynost.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Lacassagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Lacassagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Lacassagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Lacassagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Étude sur la Pédiculose du corps aux armées prophylaxie et traitement, Lyon, Rey, 1916
 Les Expressions populaires, le langage familier et l’argot en dermato-vénéréologie, Lyon, Legendre, 1922
@@ -563,33 +652,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jean_Lacassagne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Lacassagne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Une allée porte son nom à Beynost[3].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une allée porte son nom à Beynost.</t>
         </is>
       </c>
     </row>
